--- a/outputs-r202/f__Desulfovibrionaceae.xlsx
+++ b/outputs-r202/f__Desulfovibrionaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -615,6 +615,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -729,6 +734,11 @@
           <t>g__Desulfovibrio</t>
         </is>
       </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>g__Desulfovibrio(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -843,6 +853,11 @@
           <t>g__Mailhella</t>
         </is>
       </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>g__Mailhella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -957,6 +972,11 @@
           <t>g__Mailhella</t>
         </is>
       </c>
+      <c r="AK4" t="inlineStr">
+        <is>
+          <t>g__Mailhella(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1071,6 +1091,11 @@
           <t>g__Desulfovibrio</t>
         </is>
       </c>
+      <c r="AK5" t="inlineStr">
+        <is>
+          <t>g__Desulfovibrio(reject)</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1183,6 +1208,11 @@
       <c r="AJ6" t="inlineStr">
         <is>
           <t>g__Desulfovibrio</t>
+        </is>
+      </c>
+      <c r="AK6" t="inlineStr">
+        <is>
+          <t>g__Desulfovibrio(reject)</t>
         </is>
       </c>
     </row>

--- a/outputs-r202/f__Desulfovibrionaceae.xlsx
+++ b/outputs-r202/f__Desulfovibrionaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,229 +624,229 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>RUG075.fasta</t>
+          <t>RUG087.fasta</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.546710982339e-11</v>
+        <v>0.03005195954408102</v>
       </c>
       <c r="C2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978836</v>
       </c>
       <c r="D2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.0300401978097884</v>
       </c>
       <c r="E2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978842</v>
       </c>
       <c r="F2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978842</v>
       </c>
       <c r="G2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978842</v>
       </c>
       <c r="H2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978842</v>
       </c>
       <c r="I2" t="n">
-        <v>1.667884936037705e-05</v>
+        <v>0.03004019780978842</v>
       </c>
       <c r="J2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978838</v>
       </c>
       <c r="K2" t="n">
-        <v>0.5598576275779984</v>
+        <v>0.0301068083391368</v>
       </c>
       <c r="L2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978835</v>
       </c>
       <c r="M2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978835</v>
       </c>
       <c r="N2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978835</v>
       </c>
       <c r="O2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978835</v>
       </c>
       <c r="P2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978835</v>
       </c>
       <c r="Q2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978835</v>
       </c>
       <c r="R2" t="n">
-        <v>3.239841157092191e-13</v>
+        <v>0.03004019780978835</v>
       </c>
       <c r="S2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978844</v>
       </c>
       <c r="T2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978837</v>
       </c>
       <c r="U2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978847</v>
       </c>
       <c r="V2" t="n">
-        <v>0.4366944671374438</v>
+        <v>0.03860836225242305</v>
       </c>
       <c r="W2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978844</v>
       </c>
       <c r="X2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978844</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978841</v>
       </c>
       <c r="Z2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978841</v>
       </c>
       <c r="AA2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978841</v>
       </c>
       <c r="AB2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978846</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.0004536406049653155</v>
+        <v>0.03006713337783757</v>
       </c>
       <c r="AD2" t="n">
-        <v>0.002977585806017214</v>
+        <v>0.03004019781244631</v>
       </c>
       <c r="AE2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978845</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978839</v>
       </c>
       <c r="AG2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978839</v>
       </c>
       <c r="AH2" t="n">
-        <v>3.23984115709219e-13</v>
+        <v>0.03004019780978839</v>
       </c>
       <c r="AI2" t="n">
-        <v>0.5598576275779984</v>
+        <v>0.03860836225242305</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
-          <t>g__Desulfovibrio</t>
+          <t>g__Mailhella</t>
         </is>
       </c>
       <c r="AK2" t="inlineStr">
         <is>
-          <t>g__Desulfovibrio(reject)</t>
+          <t>g__Mailhella(reject)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>RUG087.fasta</t>
+          <t>RUG514.fasta</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.03005195954408102</v>
+        <v>2.797261273127737e-12</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03004019780978836</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0300401978097884</v>
+        <v>2.797261273127205e-12</v>
       </c>
       <c r="E3" t="n">
-        <v>0.03004019780978842</v>
+        <v>2.797261273127205e-12</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03004019780978842</v>
+        <v>2.797261273127205e-12</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03004019780978842</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="H3" t="n">
-        <v>0.03004019780978842</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03004019780978842</v>
+        <v>0.0003960910035893072</v>
       </c>
       <c r="J3" t="n">
-        <v>0.03004019780978838</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0301068083391368</v>
+        <v>0.3403004609561781</v>
       </c>
       <c r="L3" t="n">
-        <v>0.03004019780978835</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03004019780978835</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="N3" t="n">
-        <v>0.03004019780978835</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="O3" t="n">
-        <v>0.03004019780978835</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="P3" t="n">
-        <v>0.03004019780978835</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03004019780978835</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>0.03004019780978835</v>
+        <v>2.797261273127206e-12</v>
       </c>
       <c r="S3" t="n">
-        <v>0.03004019780978844</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="T3" t="n">
-        <v>0.03004019780978837</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="U3" t="n">
-        <v>0.03004019780978847</v>
+        <v>2.797261273127204e-12</v>
       </c>
       <c r="V3" t="n">
-        <v>0.03860836225242305</v>
+        <v>0.5704875008404292</v>
       </c>
       <c r="W3" t="n">
-        <v>0.03004019780978844</v>
+        <v>2.797261273127204e-12</v>
       </c>
       <c r="X3" t="n">
-        <v>0.03004019780978844</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.03004019780978841</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.03004019780978841</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.03004019780978841</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.03004019780978846</v>
+        <v>2.797261273127204e-12</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.03006713337783757</v>
+        <v>0.00191129441314886</v>
       </c>
       <c r="AD3" t="n">
-        <v>0.03004019781244631</v>
+        <v>0.08690465270833139</v>
       </c>
       <c r="AE3" t="n">
-        <v>0.03004019780978845</v>
+        <v>2.797261273127205e-12</v>
       </c>
       <c r="AF3" t="n">
-        <v>0.03004019780978839</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="AG3" t="n">
-        <v>0.03004019780978839</v>
+        <v>2.797261273127203e-12</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.03004019780978839</v>
+        <v>2.797261273127205e-12</v>
       </c>
       <c r="AI3" t="n">
-        <v>0.03860836225242305</v>
+        <v>0.5704875008404292</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -856,363 +856,6 @@
       <c r="AK3" t="inlineStr">
         <is>
           <t>g__Mailhella(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>RUG514.fasta</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.797261273127737e-12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.797261273127205e-12</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2.797261273127205e-12</v>
-      </c>
-      <c r="F4" t="n">
-        <v>2.797261273127205e-12</v>
-      </c>
-      <c r="G4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="H4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.0003960910035893072</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.3403004609561781</v>
-      </c>
-      <c r="L4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="N4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="O4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="P4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.797261273127206e-12</v>
-      </c>
-      <c r="S4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="T4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="U4" t="n">
-        <v>2.797261273127204e-12</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.5704875008404292</v>
-      </c>
-      <c r="W4" t="n">
-        <v>2.797261273127204e-12</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>2.797261273127204e-12</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>0.00191129441314886</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>0.08690465270833139</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>2.797261273127205e-12</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>2.797261273127203e-12</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>2.797261273127205e-12</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>0.5704875008404292</v>
-      </c>
-      <c r="AJ4" t="inlineStr">
-        <is>
-          <t>g__Mailhella</t>
-        </is>
-      </c>
-      <c r="AK4" t="inlineStr">
-        <is>
-          <t>g__Mailhella(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>RUG563.fasta</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0.02892337828230299</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.02892337828220988</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.02892337828220988</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.02892337828220997</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.02892337828220996</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.02892337828220991</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.02892337828220991</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.02895018702370052</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.02892337828220991</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.0731231349738352</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.02892337828220998</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.0289233782822099</v>
-      </c>
-      <c r="N5" t="n">
-        <v>0.0289233782822099</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.0289233782822099</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.0289233782822099</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>0.0289233782822099</v>
-      </c>
-      <c r="R5" t="n">
-        <v>0.0289233782822099</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.02892337828220985</v>
-      </c>
-      <c r="T5" t="n">
-        <v>0.02892337828220985</v>
-      </c>
-      <c r="U5" t="n">
-        <v>0.02892337828220986</v>
-      </c>
-      <c r="V5" t="n">
-        <v>0.03022378646048414</v>
-      </c>
-      <c r="W5" t="n">
-        <v>0.02892337828220988</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0.02892337828220985</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0.02892337828220985</v>
-      </c>
-      <c r="Z5" t="n">
-        <v>0.02892337828220985</v>
-      </c>
-      <c r="AA5" t="n">
-        <v>0.02892337828220985</v>
-      </c>
-      <c r="AB5" t="n">
-        <v>0.02892337828220989</v>
-      </c>
-      <c r="AC5" t="n">
-        <v>0.02892419634782786</v>
-      </c>
-      <c r="AD5" t="n">
-        <v>0.02892410329218217</v>
-      </c>
-      <c r="AE5" t="n">
-        <v>0.02892337828220992</v>
-      </c>
-      <c r="AF5" t="n">
-        <v>0.02892337828220988</v>
-      </c>
-      <c r="AG5" t="n">
-        <v>0.02892337828220985</v>
-      </c>
-      <c r="AH5" t="n">
-        <v>0.02892337828220987</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>0.0731231349738352</v>
-      </c>
-      <c r="AJ5" t="inlineStr">
-        <is>
-          <t>g__Desulfovibrio</t>
-        </is>
-      </c>
-      <c r="AK5" t="inlineStr">
-        <is>
-          <t>g__Desulfovibrio(reject)</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>hRUG894.fasta</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>2.207503946840051e-10</v>
-      </c>
-      <c r="C6" t="n">
-        <v>7.896970344357333e-12</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.896970344357333e-12</v>
-      </c>
-      <c r="E6" t="n">
-        <v>7.896970344357333e-12</v>
-      </c>
-      <c r="F6" t="n">
-        <v>7.896970344357333e-12</v>
-      </c>
-      <c r="G6" t="n">
-        <v>7.896970344357336e-12</v>
-      </c>
-      <c r="H6" t="n">
-        <v>7.896970344357348e-12</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.0006755534726852881</v>
-      </c>
-      <c r="J6" t="n">
-        <v>7.896970344357338e-12</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.5372348290657034</v>
-      </c>
-      <c r="L6" t="n">
-        <v>7.8969703443568e-12</v>
-      </c>
-      <c r="M6" t="n">
-        <v>7.8969703443568e-12</v>
-      </c>
-      <c r="N6" t="n">
-        <v>7.8969703443568e-12</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7.8969703443568e-12</v>
-      </c>
-      <c r="P6" t="n">
-        <v>7.8969703443568e-12</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>7.8969703443568e-12</v>
-      </c>
-      <c r="R6" t="n">
-        <v>7.8969703443568e-12</v>
-      </c>
-      <c r="S6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="T6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="U6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="V6" t="n">
-        <v>0.394411516008577</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="X6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="Z6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="AA6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="AB6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="AC6" t="n">
-        <v>0.01393511806212771</v>
-      </c>
-      <c r="AD6" t="n">
-        <v>0.05374298295693683</v>
-      </c>
-      <c r="AE6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="AF6" t="n">
-        <v>7.896970344356808e-12</v>
-      </c>
-      <c r="AG6" t="n">
-        <v>7.896970344356808e-12</v>
-      </c>
-      <c r="AH6" t="n">
-        <v>7.896970344356827e-12</v>
-      </c>
-      <c r="AI6" t="n">
-        <v>0.5372348290657034</v>
-      </c>
-      <c r="AJ6" t="inlineStr">
-        <is>
-          <t>g__Desulfovibrio</t>
-        </is>
-      </c>
-      <c r="AK6" t="inlineStr">
-        <is>
-          <t>g__Desulfovibrio(reject)</t>
         </is>
       </c>
     </row>
